--- a/blog/posts/AprilProgram/data/April.xlsx
+++ b/blog/posts/AprilProgram/data/April.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/edwardcr_qut_edu_au/Documents/Research/_website/edwchris.github.io/blog/posts/AprilProgram/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{27EDEBC8-D4A4-4F84-B47B-695760FF920C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{354DECAB-37AF-4314-BC9A-C84684F6DA67}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{27EDEBC8-D4A4-4F84-B47B-695760FF920C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1131F4D1-239E-4560-BB10-522D07289948}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="0" windowWidth="33170" windowHeight="20880" xr2:uid="{91CA0F68-18E3-4C81-872C-2247EA87DE44}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>As above.</t>
   </si>
   <si>
-    <t>One hour easy to HR (or Parkrun if you want a hit out)</t>
-  </si>
-  <si>
     <t>Two hours easy to HR</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>28th April</t>
+  </si>
+  <si>
+    <t>One hour easy to HR (or Parkrun)</t>
   </si>
 </sst>
 </file>
@@ -161,9 +161,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,12 +500,12 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
     <col min="2" max="2" width="23.36328125" customWidth="1"/>
     <col min="3" max="3" width="18.7265625" customWidth="1"/>
     <col min="4" max="4" width="21.1796875" customWidth="1"/>
@@ -517,14 +516,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -533,18 +532,18 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
+      <c r="A2" t="s">
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -569,8 +568,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
+      <c r="A3" t="s">
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -595,8 +594,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
+      <c r="A4" t="s">
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -621,8 +620,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>29</v>
+      <c r="A5" t="s">
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -640,10 +639,10 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
         <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
